--- a/It201819/Calculation/savings.xlsx
+++ b/It201819/Calculation/savings.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp1\Desktop\It201819\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp1\Desktop\It201819\Calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="227">
   <si>
     <t>NAME</t>
   </si>
@@ -1117,11 +1117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P101"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>6405</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>6756</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>14965</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>6957</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>35840</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
@@ -1495,18 +1495,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
       </c>
+      <c r="D27">
+        <v>13282</v>
+      </c>
+      <c r="O27">
+        <v>79200</v>
+      </c>
       <c r="P27">
         <v>12300</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -1523,15 +1529,27 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>12000</v>
+      </c>
+      <c r="L29">
+        <v>12000</v>
+      </c>
+      <c r="O29">
+        <v>78000</v>
+      </c>
+      <c r="P29">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -1539,15 +1557,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>64000</v>
+      </c>
+      <c r="I31">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -1567,7 +1591,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>78</v>
       </c>
@@ -1578,10 +1602,10 @@
         <v>23204</v>
       </c>
       <c r="L33">
-        <v>85204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
@@ -1598,18 +1622,24 @@
         <v>34112</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
       </c>
+      <c r="D35">
+        <v>15162</v>
+      </c>
+      <c r="E35">
+        <v>25000</v>
+      </c>
       <c r="P35">
         <v>12300</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -1626,7 +1656,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -1646,7 +1676,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>88</v>
       </c>
@@ -1660,7 +1690,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>90</v>
       </c>
@@ -1677,7 +1707,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>92</v>
       </c>
@@ -1687,8 +1717,8 @@
       <c r="C40">
         <v>63445</v>
       </c>
-      <c r="D40" t="s">
-        <v>221</v>
+      <c r="D40">
+        <v>40800</v>
       </c>
       <c r="G40">
         <v>14475</v>
@@ -1703,7 +1733,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
@@ -1714,7 +1744,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
@@ -1728,7 +1758,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>98</v>
       </c>
@@ -1736,7 +1766,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>100</v>
       </c>
@@ -1744,7 +1774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>102</v>
       </c>
@@ -1755,18 +1785,21 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B46" t="s">
         <v>105</v>
       </c>
+      <c r="D46">
+        <v>6166</v>
+      </c>
       <c r="E46">
         <v>50000</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>106</v>
       </c>
@@ -1777,7 +1810,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>108</v>
       </c>
@@ -1797,7 +1830,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>110</v>
       </c>
@@ -1811,7 +1844,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>112</v>
       </c>
@@ -1828,18 +1861,23 @@
         <v>20403</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B51" t="s">
         <v>115</v>
       </c>
+      <c r="D51">
+        <f>25000+25500</f>
+        <v>50500</v>
+      </c>
       <c r="P51">
-        <v>16400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <f>16400+18290</f>
+        <v>34690</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>116</v>
       </c>
@@ -1856,7 +1894,7 @@
         <v>98400</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>118</v>
       </c>
@@ -1864,7 +1902,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>120</v>
       </c>
@@ -1884,7 +1922,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>122</v>
       </c>
@@ -1904,7 +1942,7 @@
         <v>149677</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>124</v>
       </c>
@@ -1921,7 +1959,7 @@
         <v>149081</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
@@ -1938,7 +1976,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>128</v>
       </c>
@@ -1952,7 +1990,7 @@
         <v>99600</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>130</v>
       </c>
@@ -1960,7 +1998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>132</v>
       </c>
@@ -1977,7 +2015,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>134</v>
       </c>
@@ -2000,7 +2038,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>136</v>
       </c>
@@ -2008,7 +2046,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>138</v>
       </c>
@@ -2016,7 +2054,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>140</v>
       </c>
@@ -2027,7 +2065,7 @@
         <v>23518</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>142</v>
       </c>
@@ -2041,7 +2079,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>144</v>
       </c>
@@ -2049,7 +2087,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>146</v>
       </c>
@@ -2057,7 +2095,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>148</v>
       </c>
@@ -2074,7 +2112,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>150</v>
       </c>
@@ -2082,15 +2120,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B70" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>40000</v>
+      </c>
+      <c r="H70">
+        <v>44400</v>
+      </c>
+      <c r="L70">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>154</v>
       </c>
@@ -2104,7 +2151,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>156</v>
       </c>
@@ -2115,7 +2162,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>158</v>
       </c>
@@ -2123,7 +2170,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>160</v>
       </c>
@@ -2131,7 +2178,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>162</v>
       </c>
@@ -2139,7 +2186,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>164</v>
       </c>
@@ -2156,7 +2203,7 @@
         <v>25411</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>166</v>
       </c>
@@ -2182,7 +2229,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>168</v>
       </c>
@@ -2190,7 +2237,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>170</v>
       </c>
@@ -2198,7 +2245,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>172</v>
       </c>
@@ -2206,7 +2253,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>174</v>
       </c>
@@ -2220,7 +2267,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>176</v>
       </c>
@@ -2234,7 +2281,7 @@
         <v>63500</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>178</v>
       </c>
@@ -2242,7 +2289,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>180</v>
       </c>
@@ -2250,7 +2297,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>182</v>
       </c>
@@ -2258,7 +2305,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>184</v>
       </c>
@@ -2266,7 +2313,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>186</v>
       </c>
@@ -2274,10 +2321,10 @@
         <v>187</v>
       </c>
       <c r="E87">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>188</v>
       </c>
@@ -2288,7 +2335,7 @@
         <v>11340</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>190</v>
       </c>
@@ -2296,7 +2343,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>192</v>
       </c>
@@ -2313,7 +2360,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>194</v>
       </c>
@@ -2321,7 +2368,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>196</v>
       </c>
@@ -2329,7 +2376,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>198</v>
       </c>
@@ -2337,7 +2384,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>200</v>
       </c>
@@ -2345,7 +2392,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -2356,12 +2403,12 @@
         <v>18049</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K96" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>225</v>
       </c>
@@ -2369,7 +2416,7 @@
         <v>29600</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>226</v>
       </c>
@@ -2380,25 +2427,30 @@
         <v>42035</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K101" t="s">
         <v>224</v>
       </c>
     </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P98">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SANTU KUMAR"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P98"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7950,6 +8002,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/It201819/Calculation/savings.xlsx
+++ b/It201819/Calculation/savings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="227">
   <si>
     <t>NAME</t>
   </si>
@@ -1117,11 +1117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>6405</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>6756</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -1396,15 +1396,21 @@
         <v>14965</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>37812</v>
+      </c>
+      <c r="E18">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>6957</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>35840</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>78</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>34112</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>88</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>90</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>92</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
@@ -1758,15 +1764,27 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B43" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>46737</v>
+      </c>
+      <c r="E43">
+        <v>12000</v>
+      </c>
+      <c r="L43">
+        <v>130000</v>
+      </c>
+      <c r="P43">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>100</v>
       </c>
@@ -1785,7 +1803,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>104</v>
       </c>
@@ -1799,7 +1817,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>106</v>
       </c>
@@ -1810,7 +1828,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>108</v>
       </c>
@@ -1830,7 +1848,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>110</v>
       </c>
@@ -1844,7 +1862,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>112</v>
       </c>
@@ -1861,7 +1879,7 @@
         <v>20403</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>114</v>
       </c>
@@ -1877,7 +1895,7 @@
         <v>34690</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>116</v>
       </c>
@@ -1894,7 +1912,7 @@
         <v>98400</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>118</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>120</v>
       </c>
@@ -1922,7 +1940,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>122</v>
       </c>
@@ -1942,7 +1960,7 @@
         <v>149677</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>124</v>
       </c>
@@ -1959,7 +1977,7 @@
         <v>149081</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>128</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>99600</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>130</v>
       </c>
@@ -1998,7 +2016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>132</v>
       </c>
@@ -2015,7 +2033,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>134</v>
       </c>
@@ -2038,7 +2056,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>136</v>
       </c>
@@ -2046,7 +2064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>138</v>
       </c>
@@ -2054,7 +2072,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>140</v>
       </c>
@@ -2065,7 +2083,7 @@
         <v>23518</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>142</v>
       </c>
@@ -2079,7 +2097,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>144</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>146</v>
       </c>
@@ -2095,7 +2113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>148</v>
       </c>
@@ -2112,7 +2130,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>150</v>
       </c>
@@ -2120,7 +2138,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>152</v>
       </c>
@@ -2137,7 +2155,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>154</v>
       </c>
@@ -2151,7 +2169,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>156</v>
       </c>
@@ -2162,7 +2180,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>158</v>
       </c>
@@ -2170,7 +2188,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>160</v>
       </c>
@@ -2178,15 +2196,24 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B75" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>97955</v>
+      </c>
+      <c r="D75">
+        <v>50000</v>
+      </c>
+      <c r="E75">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>164</v>
       </c>
@@ -2203,7 +2230,7 @@
         <v>25411</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>166</v>
       </c>
@@ -2229,7 +2256,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>168</v>
       </c>
@@ -2237,7 +2264,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>170</v>
       </c>
@@ -2245,7 +2272,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>172</v>
       </c>
@@ -2253,7 +2280,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>174</v>
       </c>
@@ -2267,7 +2294,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>176</v>
       </c>
@@ -2277,11 +2304,11 @@
       <c r="D82">
         <v>66160</v>
       </c>
-      <c r="E82">
-        <v>63500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>178</v>
       </c>
@@ -2289,7 +2316,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>180</v>
       </c>
@@ -2297,7 +2324,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>182</v>
       </c>
@@ -2305,7 +2332,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>184</v>
       </c>
@@ -2313,7 +2340,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>186</v>
       </c>
@@ -2324,7 +2351,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>188</v>
       </c>
@@ -2335,7 +2362,7 @@
         <v>11340</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>190</v>
       </c>
@@ -2343,7 +2370,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>192</v>
       </c>
@@ -2360,7 +2387,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>194</v>
       </c>
@@ -2368,7 +2395,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>196</v>
       </c>
@@ -2376,7 +2403,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>198</v>
       </c>
@@ -2384,7 +2411,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>200</v>
       </c>
@@ -2392,7 +2419,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -2403,12 +2430,12 @@
         <v>18049</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="K96" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>225</v>
       </c>
@@ -2416,7 +2443,7 @@
         <v>29600</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>226</v>
       </c>
@@ -2443,7 +2470,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P98"/>
+  <autoFilter ref="A1:P98">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TANMAY BHATTACHARYA"/>
+        <filter val="TANMOY MONDAL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
